--- a/TestData/T1950_Contacts_ValidationRules_PreventHCMProfileFromEditingInternalContactRecords.xlsx
+++ b/TestData/T1950_Contacts_ValidationRules_PreventHCMProfileFromEditingInternalContactRecords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HL\SalesForce_Project\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B39726-DD7E-4957-8128-9A9450E1448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B332C-EFA6-432D-B66B-A74C1F61620D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19416" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CompanyName</t>
   </si>
@@ -53,10 +53,16 @@
     <t>Houlihan</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>StandardTestCompany</t>
+    <t>Houlihan Capital Holdings, Inc</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>Houlihan Employee</t>
   </si>
 </sst>
 </file>
@@ -386,15 +392,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -407,17 +413,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
